--- a/Deliverable/Vacc vs Unvacc.xlsx
+++ b/Deliverable/Vacc vs Unvacc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Covid Mechanistic Model\GIT\Stochastic-Covid-Sim\Deliverable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC109E01-FD35-42C9-8DA3-88B768586FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597BA50-46ED-4C50-9F54-32E08C59E077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -892,7 +902,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
@@ -2757,15 +2777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
+      <xdr:colOff>339725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Deliverable/Vacc vs Unvacc.xlsx
+++ b/Deliverable/Vacc vs Unvacc.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Covid Mechanistic Model\GIT\Stochastic-Covid-Sim\Deliverable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597BA50-46ED-4C50-9F54-32E08C59E077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6440E-DB91-4BE8-96A7-1DEAB214AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Unvaccintated" sheetId="1" r:id="rId1"/>
+    <sheet name="vacc 10per" sheetId="4" r:id="rId2"/>
+    <sheet name="vacc 20per" sheetId="5" r:id="rId3"/>
+    <sheet name="Plots" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Peak Infection</t>
   </si>
@@ -49,6 +50,9 @@
   </si>
   <si>
     <t>Day of 50per infected(vacc)</t>
+  </si>
+  <si>
+    <t>Peak Infection (vaccinated)</t>
   </si>
 </sst>
 </file>
@@ -107,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -232,190 +239,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Unvaccintated!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Day of 50per infected</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-001"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$46:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$46:$E$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27DE-4511-882F-D6E31FFBAB4E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet1 (2)'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Day of 50per infected(vacc)</c:v>
+                  <c:v>Peak Infection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -492,42 +324,42 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$46:$E$56</c:f>
+              <c:f>Unvaccintated!$C$46:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,7 +367,140 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-27DE-4511-882F-D6E31FFBAB4E}"/>
+              <c16:uniqueId val="{00000001-2CA0-494C-B1CA-1AB9B9BE80A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vacc 10per'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peak Infection(Vacc)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-001"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'vacc 10per'!$C$46:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CA0-494C-B1CA-1AB9B9BE80A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -966,11 +931,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Unvaccintated!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Day of 50per infected</c:v>
+                  <c:v>Peak Infection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1047,7 +1012,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$2:$B$12</c:f>
+              <c:f>'vacc 10per'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1089,42 +1054,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Unvaccintated!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,7 +1097,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4466-4D14-B92E-F5881DC8920D}"/>
+              <c16:uniqueId val="{00000000-8E3E-435B-B6DB-B386B98DA384}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1141,11 +1106,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$E$1</c:f>
+              <c:f>'vacc 10per'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Day of 50per infected(vacc)</c:v>
+                  <c:v>Peak Infection(Vacc)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1222,7 +1187,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$2:$B$12</c:f>
+              <c:f>'vacc 10per'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1264,42 +1229,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$2:$E$12</c:f>
+              <c:f>'vacc 10per'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>189.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,7 +1272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4466-4D14-B92E-F5881DC8920D}"/>
+              <c16:uniqueId val="{00000001-8E3E-435B-B6DB-B386B98DA384}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1624,6 +1589,769 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unvaccinated vs Vaccinated</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vaccination</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> =20/day</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ro=3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-001"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vacc 20per'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peak Infection (vaccinated)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-001"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'vacc 20per'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vacc 20per'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46DE-42DE-9060-6CC16A075ECB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unvaccintated!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peak Infection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-001"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'vacc 20per'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unvaccintated!$C$13:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46DE-42DE-9060-6CC16A075ECB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="641495839"/>
+        <c:axId val="641488767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="641495839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmission Ration</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-001"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-001"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641488767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="641488767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-001"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-001"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641495839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-001"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-001"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1704,6 +2432,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2221,6 +2989,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2805,6 +4089,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367195</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>331303</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9374BEE-3E38-906E-B7B7-88F191898EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,7 +4457,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A56"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3173,7 +4493,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.1</v>
       </c>
       <c r="B2" s="1">
@@ -3196,7 +4516,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
@@ -3217,7 +4537,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>0.2</v>
       </c>
@@ -3238,7 +4558,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>0.3</v>
       </c>
@@ -3259,7 +4579,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>0.4</v>
       </c>
@@ -3280,7 +4600,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
@@ -3301,7 +4621,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>0.6</v>
       </c>
@@ -3322,7 +4642,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>0.7</v>
       </c>
@@ -3343,7 +4663,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -3364,7 +4684,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -3385,7 +4705,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -3406,7 +4726,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>0.3</v>
       </c>
       <c r="B13" s="1">
@@ -3429,7 +4749,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
@@ -3450,7 +4770,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>0.2</v>
       </c>
@@ -3471,7 +4791,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>0.3</v>
       </c>
@@ -3492,7 +4812,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>0.4</v>
       </c>
@@ -3513,7 +4833,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>0.5</v>
       </c>
@@ -3534,7 +4854,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>0.6</v>
       </c>
@@ -3555,7 +4875,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>0.7</v>
       </c>
@@ -3576,7 +4896,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -3597,7 +4917,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -3618,7 +4938,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -3639,7 +4959,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>0.5</v>
       </c>
       <c r="B24" s="1">
@@ -3662,7 +4982,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>0.1</v>
       </c>
@@ -3683,7 +5003,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>0.2</v>
       </c>
@@ -3704,7 +5024,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>0.3</v>
       </c>
@@ -3725,7 +5045,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>0.4</v>
       </c>
@@ -3746,7 +5066,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>0.5</v>
       </c>
@@ -3767,7 +5087,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>0.6</v>
       </c>
@@ -3788,7 +5108,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>0.7</v>
       </c>
@@ -3809,7 +5129,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -3830,7 +5150,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -3851,7 +5171,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -3872,7 +5192,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>0.7</v>
       </c>
       <c r="B35" s="1">
@@ -3895,7 +5215,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>0.1</v>
       </c>
@@ -3916,7 +5236,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>0.2</v>
       </c>
@@ -3937,7 +5257,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>0.3</v>
       </c>
@@ -3958,7 +5278,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>0.4</v>
       </c>
@@ -3979,7 +5299,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>0.5</v>
       </c>
@@ -4000,7 +5320,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>0.6</v>
       </c>
@@ -4021,7 +5341,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>0.7</v>
       </c>
@@ -4042,7 +5362,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -4063,7 +5383,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -4084,7 +5404,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -4105,7 +5425,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>0.89999999999999991</v>
       </c>
       <c r="B46" s="1">
@@ -4128,7 +5448,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>0.1</v>
       </c>
@@ -4149,7 +5469,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>0.2</v>
       </c>
@@ -4170,7 +5490,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>0.3</v>
       </c>
@@ -4191,7 +5511,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>0.4</v>
       </c>
@@ -4212,7 +5532,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>0.5</v>
       </c>
@@ -4233,7 +5553,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>0.6</v>
       </c>
@@ -4254,7 +5574,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>0.7</v>
       </c>
@@ -4275,7 +5595,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -4296,7 +5616,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -4317,7 +5637,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -4353,7 +5673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7610958C-F134-408A-B210-3AA0F952DAB1}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4390,7 +5710,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.1</v>
       </c>
       <c r="B2" s="1">
@@ -4413,7 +5733,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
@@ -4434,7 +5754,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>0.2</v>
       </c>
@@ -4455,7 +5775,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>0.3</v>
       </c>
@@ -4476,7 +5796,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>0.4</v>
       </c>
@@ -4497,7 +5817,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
@@ -4518,7 +5838,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>0.6</v>
       </c>
@@ -4539,7 +5859,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>0.7</v>
       </c>
@@ -4560,7 +5880,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -4581,7 +5901,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -4602,7 +5922,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -4623,7 +5943,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>0.3</v>
       </c>
       <c r="B13" s="1">
@@ -4646,7 +5966,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
@@ -4667,7 +5987,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>0.2</v>
       </c>
@@ -4688,7 +6008,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>0.3</v>
       </c>
@@ -4709,7 +6029,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>0.4</v>
       </c>
@@ -4730,7 +6050,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>0.5</v>
       </c>
@@ -4751,7 +6071,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>0.6</v>
       </c>
@@ -4772,7 +6092,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>0.7</v>
       </c>
@@ -4793,7 +6113,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -4814,7 +6134,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -4835,7 +6155,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -4856,7 +6176,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>0.5</v>
       </c>
       <c r="B24" s="1">
@@ -4879,7 +6199,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>0.1</v>
       </c>
@@ -4900,7 +6220,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>0.2</v>
       </c>
@@ -4921,7 +6241,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>0.3</v>
       </c>
@@ -4942,7 +6262,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>0.4</v>
       </c>
@@ -4963,7 +6283,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>0.5</v>
       </c>
@@ -4984,7 +6304,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>0.6</v>
       </c>
@@ -5005,7 +6325,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>0.7</v>
       </c>
@@ -5026,7 +6346,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -5047,7 +6367,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -5068,7 +6388,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -5089,7 +6409,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>0.7</v>
       </c>
       <c r="B35" s="1">
@@ -5112,7 +6432,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>0.1</v>
       </c>
@@ -5133,7 +6453,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>0.2</v>
       </c>
@@ -5154,7 +6474,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>0.3</v>
       </c>
@@ -5175,7 +6495,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>0.4</v>
       </c>
@@ -5196,7 +6516,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>0.5</v>
       </c>
@@ -5217,7 +6537,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>0.6</v>
       </c>
@@ -5238,7 +6558,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>0.7</v>
       </c>
@@ -5259,7 +6579,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -5280,7 +6600,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -5301,7 +6621,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -5322,7 +6642,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>0.89999999999999991</v>
       </c>
       <c r="B46" s="1">
@@ -5345,7 +6665,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>0.1</v>
       </c>
@@ -5366,7 +6686,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>0.2</v>
       </c>
@@ -5387,7 +6707,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>0.3</v>
       </c>
@@ -5408,7 +6728,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>0.4</v>
       </c>
@@ -5429,7 +6749,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>0.5</v>
       </c>
@@ -5450,7 +6770,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>0.6</v>
       </c>
@@ -5471,7 +6791,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>0.7</v>
       </c>
@@ -5492,7 +6812,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>0.79999999999999993</v>
       </c>
@@ -5513,7 +6833,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>0.89999999999999991</v>
       </c>
@@ -5534,7 +6854,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>0.99999999999999989</v>
       </c>
@@ -5567,11 +6887,292 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D9ADED-2959-40C6-A5FA-416DA82A578B}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>292</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>289</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>284</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>278</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C6">
+        <v>269</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>254</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C9">
+        <v>233</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C10">
+        <v>223</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C11">
+        <v>155</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4BE6AA-34DF-4A84-97FB-201EEF2C45D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Deliverable/Vacc vs Unvacc.xlsx
+++ b/Deliverable/Vacc vs Unvacc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Covid Mechanistic Model\GIT\Stochastic-Covid-Sim\Deliverable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6440E-DB91-4BE8-96A7-1DEAB214AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716D6DB0-FFF0-4209-80BA-F6D9769E4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unvaccintated" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Peak Infection</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Peak Infection (vaccinated)</t>
+  </si>
+  <si>
+    <t>Day of Peak Infection(Vaccinated)</t>
+  </si>
+  <si>
+    <t>Day of Peak Infection(Unvaccinated)</t>
   </si>
 </sst>
 </file>
@@ -183,17 +189,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -322,6 +318,48 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Unvaccintated!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Unvaccintated!$C$46:$C$56</c:f>
@@ -455,6 +493,48 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Unvaccintated!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'vacc 10per'!$C$46:$C$56</c:f>
@@ -545,13 +625,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>P</a:t>
+                  <a:t>Transmission Ratio</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Values</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -867,17 +942,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
@@ -1317,7 +1382,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>p_Values</a:t>
+                  <a:t>Transmission Ratio</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2037,6 +2102,653 @@
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="641495839"/>
+        <c:axId val="641488767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="641495839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmission Ration</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-001"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-001"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641488767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="641488767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-001"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-001"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641495839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-001"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-001"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unvaccinated vs Vaccinated</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vaccination</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> =20/day</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ro=3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-001"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vacc 20per'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day of Peak Infection(Vaccinated)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'vacc 20per'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vacc 20per'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BF7-42E3-AAAA-7193BD436DF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unvaccintated!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day of Peak Infection(Unvaccinated)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'vacc 20per'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unvaccintated!$D$13:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BF7-42E3-AAAA-7193BD436DF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2472,6 +3184,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3505,6 +4257,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4125,6 +5393,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599522</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315C1237-51E6-4EDC-9DEB-5178F6647454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4457,7 +5763,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4480,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -6891,14 +8197,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6914,7 +8220,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -7171,8 +8477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4BE6AA-34DF-4A84-97FB-201EEF2C45D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
